--- a/output_file.xlsx
+++ b/output_file.xlsx
@@ -869,7 +869,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ2" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ3" t="inlineStr">
@@ -1381,7 +1381,7 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ4" t="inlineStr">
@@ -1637,7 +1637,7 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ5" t="inlineStr">
@@ -1893,7 +1893,7 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ6" t="inlineStr">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ7" t="inlineStr">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ8" t="inlineStr">
@@ -2661,7 +2661,7 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ9" t="inlineStr">
@@ -2917,7 +2917,7 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ10" t="inlineStr">
@@ -3173,7 +3173,7 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ11" t="inlineStr">
@@ -3685,7 +3685,7 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ13" t="inlineStr">
@@ -3941,7 +3941,7 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ14" t="inlineStr">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ15" t="inlineStr">
@@ -4453,7 +4453,7 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ16" t="inlineStr">
@@ -4709,7 +4709,7 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ17" t="inlineStr">
@@ -4965,7 +4965,7 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ18" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ19" t="inlineStr">
@@ -5477,7 +5477,7 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ20" t="inlineStr">
@@ -5989,7 +5989,7 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ22" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ23" t="inlineStr">
@@ -6501,7 +6501,7 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ24" t="inlineStr">
@@ -6757,7 +6757,7 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ25" t="inlineStr">
@@ -7013,7 +7013,7 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ26" t="inlineStr">
@@ -7269,7 +7269,7 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ27" t="inlineStr">
@@ -7525,7 +7525,7 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ28" t="inlineStr">
@@ -7781,7 +7781,7 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ29" t="inlineStr">
@@ -8037,7 +8037,7 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ30" t="inlineStr">
@@ -8293,7 +8293,7 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ31" t="inlineStr">
@@ -8549,7 +8549,7 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ32" t="inlineStr">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ33" t="inlineStr">
@@ -10085,7 +10085,7 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ38" t="inlineStr">
@@ -11109,7 +11109,7 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ42" t="inlineStr">
@@ -11365,7 +11365,7 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ43" t="inlineStr">
@@ -11621,7 +11621,7 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ44" t="inlineStr">
@@ -12133,7 +12133,7 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ46" t="inlineStr">
@@ -12901,7 +12901,7 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ49" t="inlineStr">
@@ -13157,7 +13157,7 @@
       </c>
       <c r="AI50" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ50" t="inlineStr">
@@ -14181,7 +14181,7 @@
       </c>
       <c r="AI54" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ54" t="inlineStr">
@@ -15205,7 +15205,7 @@
       </c>
       <c r="AI58" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ58" t="inlineStr">
@@ -15461,7 +15461,7 @@
       </c>
       <c r="AI59" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ59" t="inlineStr">
@@ -16485,7 +16485,7 @@
       </c>
       <c r="AI63" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ63" t="inlineStr">
@@ -16741,7 +16741,7 @@
       </c>
       <c r="AI64" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ64" t="inlineStr">
@@ -18277,7 +18277,7 @@
       </c>
       <c r="AI70" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ70" t="inlineStr">
@@ -19813,7 +19813,7 @@
       </c>
       <c r="AI76" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ76" t="inlineStr">
@@ -20069,7 +20069,7 @@
       </c>
       <c r="AI77" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ77" t="inlineStr">
@@ -20325,7 +20325,7 @@
       </c>
       <c r="AI78" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ78" t="inlineStr">
@@ -20837,7 +20837,7 @@
       </c>
       <c r="AI80" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ80" t="inlineStr">
@@ -21349,7 +21349,7 @@
       </c>
       <c r="AI82" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ82" t="inlineStr">
@@ -21605,7 +21605,7 @@
       </c>
       <c r="AI83" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ83" t="inlineStr">
@@ -22117,7 +22117,7 @@
       </c>
       <c r="AI85" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ85" t="inlineStr">
@@ -23141,7 +23141,7 @@
       </c>
       <c r="AI89" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ89" t="inlineStr">
@@ -23653,7 +23653,7 @@
       </c>
       <c r="AI91" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ91" t="inlineStr">
@@ -23909,7 +23909,7 @@
       </c>
       <c r="AI92" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ92" t="inlineStr">
@@ -24165,7 +24165,7 @@
       </c>
       <c r="AI93" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ93" t="inlineStr">
@@ -24421,7 +24421,7 @@
       </c>
       <c r="AI94" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ94" t="inlineStr">
@@ -25189,7 +25189,7 @@
       </c>
       <c r="AI97" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ97" t="inlineStr">
@@ -26725,7 +26725,7 @@
       </c>
       <c r="AI103" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ103" t="inlineStr">
@@ -28005,7 +28005,7 @@
       </c>
       <c r="AI108" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ108" t="inlineStr">
@@ -28261,7 +28261,7 @@
       </c>
       <c r="AI109" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ109" t="inlineStr">
@@ -28773,7 +28773,7 @@
       </c>
       <c r="AI111" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ111" t="inlineStr">
@@ -29541,7 +29541,7 @@
       </c>
       <c r="AI114" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ114" t="inlineStr">
@@ -30309,7 +30309,7 @@
       </c>
       <c r="AI117" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ117" t="inlineStr">
@@ -30565,7 +30565,7 @@
       </c>
       <c r="AI118" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ118" t="inlineStr">
@@ -32101,7 +32101,7 @@
       </c>
       <c r="AI124" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ124" t="inlineStr">
@@ -32357,7 +32357,7 @@
       </c>
       <c r="AI125" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ125" t="inlineStr">
@@ -32613,7 +32613,7 @@
       </c>
       <c r="AI126" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ126" t="inlineStr">
@@ -33381,7 +33381,7 @@
       </c>
       <c r="AI129" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ129" t="inlineStr">
@@ -33637,7 +33637,7 @@
       </c>
       <c r="AI130" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ130" t="inlineStr">
@@ -34661,7 +34661,7 @@
       </c>
       <c r="AI134" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ134" t="inlineStr">
@@ -35429,7 +35429,7 @@
       </c>
       <c r="AI137" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ137" t="inlineStr">
@@ -37473,7 +37473,7 @@
       </c>
       <c r="AI145" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ145" t="inlineStr">
@@ -37729,7 +37729,7 @@
       </c>
       <c r="AI146" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ146" t="inlineStr">
@@ -37985,7 +37985,7 @@
       </c>
       <c r="AI147" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ147" t="inlineStr">
@@ -38241,7 +38241,7 @@
       </c>
       <c r="AI148" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ148" t="inlineStr">
@@ -38753,7 +38753,7 @@
       </c>
       <c r="AI150" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ150" t="inlineStr">
@@ -40801,7 +40801,7 @@
       </c>
       <c r="AI158" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ158" t="inlineStr">
@@ -41313,7 +41313,7 @@
       </c>
       <c r="AI160" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ160" t="inlineStr">
@@ -41569,7 +41569,7 @@
       </c>
       <c r="AI161" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ161" t="inlineStr">
@@ -42081,7 +42081,7 @@
       </c>
       <c r="AI163" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ163" t="inlineStr">
@@ -42337,7 +42337,7 @@
       </c>
       <c r="AI164" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ164" t="inlineStr">
@@ -42593,7 +42593,7 @@
       </c>
       <c r="AI165" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ165" t="inlineStr">
@@ -43105,7 +43105,7 @@
       </c>
       <c r="AI167" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ167" t="inlineStr">
@@ -43617,7 +43617,7 @@
       </c>
       <c r="AI169" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ169" t="inlineStr">
@@ -44641,7 +44641,7 @@
       </c>
       <c r="AI173" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ173" t="inlineStr">
@@ -45921,7 +45921,7 @@
       </c>
       <c r="AI178" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ178" t="inlineStr">
@@ -46689,7 +46689,7 @@
       </c>
       <c r="AI181" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ181" t="inlineStr">
@@ -48225,7 +48225,7 @@
       </c>
       <c r="AI187" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ187" t="inlineStr">
@@ -48737,7 +48737,7 @@
       </c>
       <c r="AI189" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ189" t="inlineStr">
@@ -48993,7 +48993,7 @@
       </c>
       <c r="AI190" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ190" t="inlineStr">
@@ -49757,7 +49757,7 @@
       </c>
       <c r="AI193" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ193" t="inlineStr">
@@ -50269,7 +50269,7 @@
       </c>
       <c r="AI195" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ195" t="inlineStr">
@@ -52061,7 +52061,7 @@
       </c>
       <c r="AI202" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ202" t="inlineStr">
@@ -52317,7 +52317,7 @@
       </c>
       <c r="AI203" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ203" t="inlineStr">
@@ -54109,7 +54109,7 @@
       </c>
       <c r="AI210" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ210" t="inlineStr">
@@ -54621,7 +54621,7 @@
       </c>
       <c r="AI212" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ212" t="inlineStr">
@@ -54877,7 +54877,7 @@
       </c>
       <c r="AI213" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ213" t="inlineStr">
@@ -55901,7 +55901,7 @@
       </c>
       <c r="AI217" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ217" t="inlineStr">
@@ -56925,7 +56925,7 @@
       </c>
       <c r="AI221" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ221" t="inlineStr">
@@ -57433,7 +57433,7 @@
       </c>
       <c r="AI223" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ223" t="inlineStr">
@@ -57945,7 +57945,7 @@
       </c>
       <c r="AI225" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ225" t="inlineStr">
@@ -58201,7 +58201,7 @@
       </c>
       <c r="AI226" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ226" t="inlineStr">
@@ -58457,7 +58457,7 @@
       </c>
       <c r="AI227" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ227" t="inlineStr">
@@ -58713,7 +58713,7 @@
       </c>
       <c r="AI228" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ228" t="inlineStr">
@@ -59737,7 +59737,7 @@
       </c>
       <c r="AI232" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ232" t="inlineStr">
@@ -60249,7 +60249,7 @@
       </c>
       <c r="AI234" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ234" t="inlineStr">
@@ -61781,7 +61781,7 @@
       </c>
       <c r="AI240" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ240" t="inlineStr">
@@ -62549,7 +62549,7 @@
       </c>
       <c r="AI243" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ243" t="inlineStr">
@@ -63317,7 +63317,7 @@
       </c>
       <c r="AI246" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ246" t="inlineStr">
@@ -64597,7 +64597,7 @@
       </c>
       <c r="AI251" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ251" t="inlineStr">
@@ -65109,7 +65109,7 @@
       </c>
       <c r="AI253" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ253" t="inlineStr">
@@ -66645,7 +66645,7 @@
       </c>
       <c r="AI259" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ259" t="inlineStr">
@@ -67413,7 +67413,7 @@
       </c>
       <c r="AI262" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ262" t="inlineStr">
@@ -67669,7 +67669,7 @@
       </c>
       <c r="AI263" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ263" t="inlineStr">
@@ -68437,7 +68437,7 @@
       </c>
       <c r="AI266" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ266" t="inlineStr">
@@ -70229,7 +70229,7 @@
       </c>
       <c r="AI273" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ273" t="inlineStr">
@@ -70997,7 +70997,7 @@
       </c>
       <c r="AI276" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ276" t="inlineStr">
@@ -71253,7 +71253,7 @@
       </c>
       <c r="AI277" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ277" t="inlineStr">
@@ -72021,7 +72021,7 @@
       </c>
       <c r="AI280" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ280" t="inlineStr">
@@ -72277,7 +72277,7 @@
       </c>
       <c r="AI281" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ281" t="inlineStr">
@@ -72789,7 +72789,7 @@
       </c>
       <c r="AI283" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ283" t="inlineStr">
@@ -74325,7 +74325,7 @@
       </c>
       <c r="AI289" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ289" t="inlineStr">
@@ -75093,7 +75093,7 @@
       </c>
       <c r="AI292" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ292" t="inlineStr">
@@ -75861,7 +75861,7 @@
       </c>
       <c r="AI295" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ295" t="inlineStr">
@@ -80981,7 +80981,7 @@
       </c>
       <c r="AI315" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ315" t="inlineStr">
@@ -81237,7 +81237,7 @@
       </c>
       <c r="AI316" t="inlineStr">
         <is>
-          <t>No choice</t>
+          <t>No Choice</t>
         </is>
       </c>
       <c r="AJ316" t="inlineStr">
